--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H2">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I2">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J2">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N2">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q2">
-        <v>751.8232541536289</v>
+        <v>380.9444105021713</v>
       </c>
       <c r="R2">
-        <v>6766.40928738266</v>
+        <v>3428.499694519542</v>
       </c>
       <c r="S2">
-        <v>0.1874673064093358</v>
+        <v>0.1380531681366387</v>
       </c>
       <c r="T2">
-        <v>0.1874673064093358</v>
+        <v>0.1380531681366387</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H3">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I3">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J3">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
         <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q3">
-        <v>862.2485094047701</v>
+        <v>635.3657027673532</v>
       </c>
       <c r="R3">
-        <v>7760.236584642929</v>
+        <v>5718.291324906179</v>
       </c>
       <c r="S3">
-        <v>0.2150018699482081</v>
+        <v>0.2302547189936918</v>
       </c>
       <c r="T3">
-        <v>0.2150018699482081</v>
+        <v>0.2302547189936918</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H4">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I4">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J4">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N4">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O4">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P4">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q4">
-        <v>95.78869058719198</v>
+        <v>68.79496738663933</v>
       </c>
       <c r="R4">
-        <v>862.0982152847279</v>
+        <v>619.1547064797539</v>
       </c>
       <c r="S4">
-        <v>0.02388493267486611</v>
+        <v>0.02493110001814337</v>
       </c>
       <c r="T4">
-        <v>0.02388493267486612</v>
+        <v>0.02493110001814337</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H5">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I5">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J5">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N5">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q5">
-        <v>57.89945006857199</v>
+        <v>13.98016559310933</v>
       </c>
       <c r="R5">
-        <v>521.0950506171479</v>
+        <v>125.821490337984</v>
       </c>
       <c r="S5">
-        <v>0.01443724158167506</v>
+        <v>0.005066372147735119</v>
       </c>
       <c r="T5">
-        <v>0.01443724158167506</v>
+        <v>0.005066372147735118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>590.324021</v>
       </c>
       <c r="I6">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J6">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N6">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q6">
-        <v>743.5011011944064</v>
+        <v>511.2533323733866</v>
       </c>
       <c r="R6">
-        <v>6691.509910749657</v>
+        <v>4601.279991360479</v>
       </c>
       <c r="S6">
-        <v>0.1853921755987728</v>
+        <v>0.185276749858383</v>
       </c>
       <c r="T6">
-        <v>0.1853921755987729</v>
+        <v>0.185276749858383</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>590.324021</v>
       </c>
       <c r="I7">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J7">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
         <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q7">
-        <v>852.7040267827124</v>
+        <v>852.7040267827122</v>
       </c>
       <c r="R7">
-        <v>7674.336241044411</v>
+        <v>7674.33624104441</v>
       </c>
       <c r="S7">
-        <v>0.2126219509468436</v>
+        <v>0.3090175078958185</v>
       </c>
       <c r="T7">
-        <v>0.2126219509468436</v>
+        <v>0.3090175078958186</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>590.324021</v>
       </c>
       <c r="I8">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J8">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N8">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O8">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P8">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q8">
-        <v>94.72837736805955</v>
+        <v>92.32752957465256</v>
       </c>
       <c r="R8">
-        <v>852.555396312536</v>
+        <v>830.947766171873</v>
       </c>
       <c r="S8">
-        <v>0.02362054332265761</v>
+        <v>0.03345923345405627</v>
       </c>
       <c r="T8">
-        <v>0.02362054332265761</v>
+        <v>0.03345923345405628</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>590.324021</v>
       </c>
       <c r="I9">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J9">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N9">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q9">
-        <v>57.25854400845289</v>
+        <v>18.76233395100089</v>
       </c>
       <c r="R9">
-        <v>515.326896076076</v>
+        <v>168.861005559008</v>
       </c>
       <c r="S9">
-        <v>0.01427743150385669</v>
+        <v>0.006799416324704224</v>
       </c>
       <c r="T9">
-        <v>0.01427743150385669</v>
+        <v>0.006799416324704224</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H10">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I10">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J10">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N10">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q10">
-        <v>209.6986616029247</v>
+        <v>62.80908362870367</v>
       </c>
       <c r="R10">
-        <v>1887.287954426322</v>
+        <v>565.2817526583331</v>
       </c>
       <c r="S10">
-        <v>0.05228841091460853</v>
+        <v>0.02276183281248645</v>
       </c>
       <c r="T10">
-        <v>0.05228841091460853</v>
+        <v>0.02276183281248645</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H11">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I11">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J11">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
         <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q11">
-        <v>240.4984913573178</v>
+        <v>104.7573778738967</v>
       </c>
       <c r="R11">
-        <v>2164.48642221586</v>
+        <v>942.8164008650699</v>
       </c>
       <c r="S11">
-        <v>0.05996835575539732</v>
+        <v>0.03796377503508749</v>
       </c>
       <c r="T11">
-        <v>0.05996835575539732</v>
+        <v>0.03796377503508749</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H12">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I12">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J12">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N12">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O12">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P12">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q12">
-        <v>26.71739681082845</v>
+        <v>11.34272807448567</v>
       </c>
       <c r="R12">
-        <v>240.456571297456</v>
+        <v>102.084552670371</v>
       </c>
       <c r="S12">
-        <v>0.006661989219838516</v>
+        <v>0.004110572311406094</v>
       </c>
       <c r="T12">
-        <v>0.006661989219838516</v>
+        <v>0.004110572311406094</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H13">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I13">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J13">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N13">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q13">
-        <v>16.14932382025511</v>
+        <v>2.305011874890667</v>
       </c>
       <c r="R13">
-        <v>145.343914382296</v>
+        <v>20.745106874016</v>
       </c>
       <c r="S13">
-        <v>0.004026837717760606</v>
+        <v>0.000835329730922555</v>
       </c>
       <c r="T13">
-        <v>0.004026837717760606</v>
+        <v>0.0008353297309225549</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H14">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I14">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J14">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N14">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q14">
-        <v>0.5985954201360001</v>
+        <v>1.406140610431667</v>
       </c>
       <c r="R14">
-        <v>5.387358781224</v>
+        <v>12.655265493885</v>
       </c>
       <c r="S14">
-        <v>0.0001492599097219863</v>
+        <v>0.0005095813477346513</v>
       </c>
       <c r="T14">
-        <v>0.0001492599097219863</v>
+        <v>0.0005095813477346513</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H15">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I15">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J15">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
         <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q15">
-        <v>0.6865150896800002</v>
+        <v>2.345259551016666</v>
       </c>
       <c r="R15">
-        <v>6.178635807120001</v>
+        <v>21.10733595915</v>
       </c>
       <c r="S15">
-        <v>0.0001711827001368258</v>
+        <v>0.0008499153739879229</v>
       </c>
       <c r="T15">
-        <v>0.0001711827001368258</v>
+        <v>0.0008499153739879229</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H16">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I16">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J16">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N16">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O16">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P16">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q16">
-        <v>0.07626615852800001</v>
+        <v>0.2539357312216667</v>
       </c>
       <c r="R16">
-        <v>0.686395426752</v>
+        <v>2.285421580995</v>
       </c>
       <c r="S16">
-        <v>1.901698468415556E-05</v>
+        <v>9.202558491941763E-05</v>
       </c>
       <c r="T16">
-        <v>1.901698468415557E-05</v>
+        <v>9.202558491941763E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.541205</v>
+      </c>
+      <c r="H17">
+        <v>1.623615</v>
+      </c>
+      <c r="I17">
+        <v>0.001470223280926138</v>
+      </c>
+      <c r="J17">
+        <v>0.001470223280926138</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="L17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G17">
-        <v>0.158424</v>
-      </c>
-      <c r="H17">
-        <v>0.475272</v>
-      </c>
-      <c r="I17">
-        <v>0.0003509544061791369</v>
-      </c>
-      <c r="J17">
-        <v>0.0003509544061791369</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
       <c r="M17">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N17">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q17">
-        <v>0.046099060448</v>
+        <v>0.05160353594666667</v>
       </c>
       <c r="R17">
-        <v>0.414891544032</v>
+        <v>0.46443182352</v>
       </c>
       <c r="S17">
-        <v>1.149481163616918E-05</v>
+        <v>1.870097428414598E-05</v>
       </c>
       <c r="T17">
-        <v>1.149481163616918E-05</v>
+        <v>1.870097428414598E-05</v>
       </c>
     </row>
   </sheetData>
